--- a/biology/Médecine/Groupe_hospitalier_de_la_Haute-Saône/Groupe_hospitalier_de_la_Haute-Saône.xlsx
+++ b/biology/Médecine/Groupe_hospitalier_de_la_Haute-Saône/Groupe_hospitalier_de_la_Haute-Saône.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupe hospitalier de la Haute-Saône (abrégé GH70) est un groupement de sites hospitaliers et médicalisés situés dans le département de la Haute-Saône. Composé de quatre hôpitaux ainsi que de plusieurs EHPAD, il fut créé le 1er janvier 2016 pour remplacer le « Centre hospitalier intercommunal de la Haute-Saône », créé le 1er janvier 2002 par la fusion de l'hôpital Paul-Morel de Vesoul et du centre hospitalier intercommunal de Lure-Luxeuil. En 2009, le centre hospitalier de Vesoul devient le site principal du groupe et remplace l'hôpital Paul-Morel. L'hôpital de Gray intègre le groupe le 1er janvier 2020.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe hospitalier de la Haute-Saône est créé le 1er janvier 2016 pour remplacer le « Centre hospitalier intercommunal de la Haute-Saône », créé le 1er janvier 2002 par la fusion de l'hôpital Paul-Morel de Vesoul et du centre hospitalier intercommunal de Lure-Luxeuil[2],[3].
-Le Centre hospitalier du Val-de-Saône-Pierre-Vitter de Gray intègre au 1er janvier 2020 le groupe hospitalier de Haute-Saône[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe hospitalier de la Haute-Saône est créé le 1er janvier 2016 pour remplacer le « Centre hospitalier intercommunal de la Haute-Saône », créé le 1er janvier 2002 par la fusion de l'hôpital Paul-Morel de Vesoul et du centre hospitalier intercommunal de Lure-Luxeuil,.
+Le Centre hospitalier du Val-de-Saône-Pierre-Vitter de Gray intègre au 1er janvier 2020 le groupe hospitalier de Haute-Saône.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,19 +561,66 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hôpitaux
-Vesoul
-Le premier hôpital de Vesoul appartenant au centre hospitalier intercommunal de la Haute-Saône fut l'hôpital Paul-Morel, de 2002 jusqu'à 2009[5]. Aujourd'hui, le centre hospitalier de Vesoul est situé dans le quartier des Haberges. Sa construction fut terminée le 18 septembre 2009, pour un coût total des travaux de 78 millions d'euros. L'édifice couvre une surface de plus de 52 000 m2[6],.
-En 2013, le site de Vesoul comprend[7] :
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Vesoul</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier hôpital de Vesoul appartenant au centre hospitalier intercommunal de la Haute-Saône fut l'hôpital Paul-Morel, de 2002 jusqu'à 2009. Aujourd'hui, le centre hospitalier de Vesoul est situé dans le quartier des Haberges. Sa construction fut terminée le 18 septembre 2009, pour un coût total des travaux de 78 millions d'euros. L'édifice couvre une surface de plus de 52 000 m2,.
+En 2013, le site de Vesoul comprend :
 221 lits de médecine
 90 lits de chirurgie
 35 lits de gynécologie/obstétrique
 12 lits de psychiatrie gérés par l'Association Hospitalière de Franche Comté
 43 places
 			Les épis de l'hôpital de Vesoul.
-Lure
-L'hôpital de Lure fut créé en 1970.
-En 2013, le site de Lure est constitué de[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sites</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lure</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de Lure fut créé en 1970.
+En 2013, le site de Lure est constitué de :
 47 lits de médecine polyvalente
 6 places en hôpital de jour de médecine
 10 lits d'addictologie et 5 places en hôpital de jour
@@ -569,19 +630,132 @@
 10 lits pour l'unité d'Alzheimer
 			L'hôpital de Lure en 2023.
 			La maison de santé.
-Luxeuil-les-Bains
-En 2013, le site de Luxeuil-les-Bains est composé de[7] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sites</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Luxeuil-les-Bains</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, le site de Luxeuil-les-Bains est composé de :
 25 lits  de médecine polyvalente
 28 lits de soins de suite et de réadaptation
 102 lits en établissement d'hébergement pour personnes âgées dépendantes
 14 places pôle d'activités et de soins adaptés
 			L'hôpital au début du XXe siècle.
 			En 2023.
-Gray
-Le Centre hospitalier du Val-de-Saône-Pierre-Vitter de Gray intègre au 1er janvier 2020 le groupe hospitalier de Haute-Saône[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des sites</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hôpitaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Gray</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre hospitalier du Val-de-Saône-Pierre-Vitter de Gray intègre au 1er janvier 2020 le groupe hospitalier de Haute-Saône.
 			L'hôpital de Gray en 2023.
-EHPAD
-En 2020, le groupe hospitalier inclut 13 EHPAD répartis sur le territoire haut-saônois[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des sites</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EHPAD</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, le groupe hospitalier inclut 13 EHPAD répartis sur le territoire haut-saônois.
 			EHPAD de Gray (ancien hôtel-Dieu).
 			EHPAD de Neurey-lès-la-Demie.
 			EHPAD de Lure (hospice Marie-Richard).
@@ -589,62 +763,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, les trois sites ont totalisé 44 048 entrées, 420 727 consultations et actes, 85 532 passages aux urgences consultations non programmées et 1 156 accouchements[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, les trois sites ont totalisé 44 048 entrées, 420 727 consultations et actes, 85 532 passages aux urgences consultations non programmées et 1 156 accouchements.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_de_la_Haute-Saône</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_de_la_Haute-Sa%C3%B4ne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ancien logo de l'organisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le logo du CHI
